--- a/python-excel-how-objects-work-solutions.xlsx
+++ b/python-excel-how-objects-work-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32213310-EE47-44F3-8C58-81B831E8699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712AE0E4-9370-4177-8621-0D25951AD8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
   </bookViews>
@@ -38,9 +38,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -51,35 +50,11 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="4"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
@@ -96,22 +71,13 @@
 points.columns</code>
   </pythonScript>
   <pythonScript>
-    <code>points_dict = points.to_dict()</code>
-  </pythonScript>
-  <pythonScript>
-    <code># Update Lebron's score
-points_dict['LeBron'] = 38927
-# Add Dirk to dict
-points_dict['Dirk'] = 31560</code>
-  </pythonScript>
-  <pythonScript>
-    <code>points = pd.DataFrame(points_dict)</code>
+    <code>points_array = points['points'].to_numpy()</code>
   </pythonScript>
 </pythonScripts>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>player</t>
   </si>
@@ -186,19 +152,28 @@
   </si>
   <si>
     <t>birth_state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="26"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,8 +196,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,186 +216,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
-  <rv s="0">
-    <v>1</v>
-    <v>Entity</v>
-    <v>LeBron</v>
-    <v>Kareem</v>
-    <v>Karl</v>
-    <v>Kobe</v>
-    <v>Michael</v>
-  </rv>
-  <rv s="1">
-    <v>1</v>
-    <v>Entity</v>
-    <v>38923</v>
-    <v>38387</v>
-    <v>36928</v>
-    <v>33643</v>
-    <v>32292</v>
-  </rv>
-  <rv s="2">
-    <v>0</v>
-    <v>Entity</v>
-    <v>0</v>
-    <v>1</v>
-  </rv>
-  <rv s="3">
-    <fb>0</fb>
-    <v>2</v>
-  </rv>
-  <rv s="4">
-    <fb>0</fb>
-    <v>&lt;class 'NoneType'&gt;</v>
-    <v>NoneType</v>
-    <v>None</v>
-    <v>3</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
-  <s t="_entity">
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="0" t="s"/>
-    <k n="1" t="s"/>
-    <k n="2" t="s"/>
-    <k n="3" t="s"/>
-    <k n="4" t="s"/>
-  </s>
-  <s t="_entity">
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="0" t="i"/>
-    <k n="1" t="i"/>
-    <k n="2" t="i"/>
-    <k n="3" t="i"/>
-    <k n="4" t="i"/>
-  </s>
-  <s t="_entity">
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="first_name" t="r"/>
-    <k n="points" t="r"/>
-  </s>
-  <s t="_formattednumber">
-    <k n="_Format" t="spb"/>
-  </s>
-  <s t="_python">
-    <k n="Python_type" t="s"/>
-    <k n="Python_typeName" t="s"/>
-    <k n="Python_str" t="s"/>
-    <k n="preview" t="r"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
-<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="2">
-    <a count="4">
-      <v t="s">first_name</v>
-      <v t="s">points</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">_Display</v>
-    </a>
-    <a count="7">
-      <v t="s">0</v>
-      <v t="s">1</v>
-      <v t="s">2</v>
-      <v t="s">3</v>
-      <v t="s">4</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">_Display</v>
-    </a>
-  </spbArrays>
-  <spbData count="3">
-    <spb s="0">
-      <v>0</v>
-    </spb>
-    <spb s="0">
-      <v>1</v>
-    </spb>
-    <spb s="1">
-      <v>1</v>
-    </spb>
-  </spbData>
-</supportingPropertyBags>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
-  <s>
-    <k n="^Order" t="spba"/>
-  </s>
-  <s>
-    <k n="_Self" t="i"/>
-  </s>
-</spbStructures>
-</file>
-
-<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
-<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <dxfs count="1">
-    <x:dxf>
-      <x:numFmt numFmtId="0" formatCode="General"/>
-    </x:dxf>
-  </dxfs>
-  <richProperties>
-    <rPr n="NumberFormat" t="s"/>
-  </richProperties>
-  <richStyles>
-    <rSty dxfid="0">
-      <rpv i="0">0;-0;* "None"</rpv>
-    </rSty>
-  </richStyles>
-</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -989,10 +787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A70547-EFC7-42EC-9C11-814561E2AD5C}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
@@ -1040,9 +838,9 @@
       <c r="B4">
         <v>36928</v>
       </c>
-      <c r="D4" t="e" cm="1" vm="1">
-        <f t="array" ref="D4">_xlfn._xlws.PY(3,0)</f>
-        <v>#VALUE!</v>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4:D8">_xlfn._xlws.PY(3,0)</f>
+        <v>38923</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="1.05">
@@ -1052,6 +850,9 @@
       <c r="B5">
         <v>33643</v>
       </c>
+      <c r="D5">
+        <v>38387</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A6" t="s">
@@ -1060,94 +861,23 @@
       <c r="B6">
         <v>32292</v>
       </c>
-      <c r="D6" cm="1" vm="2">
-        <f t="array" ref="D6">_xlfn._xlws.PY(4,1)</f>
-        <v>0</v>
+      <c r="D6">
+        <v>36928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="D7">
+        <v>33643</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A8" t="str" cm="1">
-        <f t="array" ref="A8:D13">_xlfn._xlws.PY(5,0)</f>
-        <v>first_name</v>
-      </c>
-      <c r="B8" t="str">
-        <v>points</v>
-      </c>
-      <c r="C8" t="str">
-        <v>LeBron</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Dirk</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A9" t="str">
-        <v>LeBron</v>
-      </c>
-      <c r="B9">
-        <v>38923</v>
-      </c>
-      <c r="C9">
-        <v>38927</v>
-      </c>
-      <c r="D9">
-        <v>31560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A10" t="str">
-        <v>Kareem</v>
-      </c>
-      <c r="B10">
-        <v>38387</v>
-      </c>
-      <c r="C10">
-        <v>38927</v>
-      </c>
-      <c r="D10">
-        <v>31560</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A11" t="str">
-        <v>Karl</v>
-      </c>
-      <c r="B11">
-        <v>36928</v>
-      </c>
-      <c r="C11">
-        <v>38927</v>
-      </c>
-      <c r="D11">
-        <v>31560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A12" t="str">
-        <v>Kobe</v>
-      </c>
-      <c r="B12">
-        <v>33643</v>
-      </c>
-      <c r="C12">
-        <v>38927</v>
-      </c>
-      <c r="D12">
-        <v>31560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="A13" t="str">
-        <v>Michael</v>
-      </c>
-      <c r="B13">
+      <c r="D8">
         <v>32292</v>
       </c>
-      <c r="C13">
-        <v>38927</v>
-      </c>
-      <c r="D13">
-        <v>31560</v>
+    </row>
+    <row r="11" spans="1:4" ht="66.400000000000006" x14ac:dyDescent="1.05">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/python-excel-how-objects-work-solutions.xlsx
+++ b/python-excel-how-objects-work-solutions.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27031"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712AE0E4-9370-4177-8621-0D25951AD8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F1A341-34F2-43E7-B895-1194B99C0A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="formulas-objects" sheetId="1" r:id="rId1"/>
+    <sheet name="points" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +38,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -50,34 +51,47 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
 <pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
   <pythonScript>
-    <code>players = xl(%P2%, headers=True)</code>
+    <code>points = xl(%P2%, headers=True)</code>
   </pythonScript>
   <pythonScript>
-    <code>players.columns</code>
+    <code>%%%%time
+avg_points_pd = points['points'].mean()</code>
   </pythonScript>
   <pythonScript>
-    <code>points = xl(%P2%, headers=True)
-points.columns</code>
-  </pythonScript>
-  <pythonScript>
-    <code>points_array = points['points'].to_numpy()</code>
+    <code>%%%%time
+points_np = points['points'].to_numpy()
+avg_points_np = points_np.mean()</code>
   </pythonScript>
 </pythonScripts>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>player</t>
   </si>
@@ -100,62 +114,16 @@
     <t>Michael</t>
   </si>
   <si>
-    <t>Abdul-Jabbar</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Malone</t>
-  </si>
-  <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>Summerfield</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PA</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>birth_city</t>
-  </si>
-  <si>
-    <t>birth_state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>Pick a number:</t>
+  </si>
+  <si>
+    <t>Multiply it by two:</t>
+  </si>
+  <si>
+    <t>Take the square root:</t>
+  </si>
+  <si>
+    <t>Add one for final answer:</t>
   </si>
 </sst>
 </file>
@@ -216,6 +184,112 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <fb>0</fb>
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <fb>0</fb>
+    <v>&lt;class 'NoneType'&gt;</v>
+    <v>NoneType</v>
+    <v>None</v>
+    <v>0</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="1">
+    <spb s="0">
+      <v>1</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0">
+      <rpv i="0">0;-0;* "None"</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,16 +609,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3CCDC4-FF77-464C-9B42-D2F988350D25}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <cols>
-    <col min="1" max="1" width="9.16796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" customWidth="1"/>
+    <col min="2" max="2" width="19.9140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.65625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.33984375" customWidth="1"/>
@@ -554,182 +626,51 @@
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="1.05">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="str" cm="1">
-        <f t="array" ref="F1:I6">_xlfn._xlws.PY(0,0,A1:D6)</f>
-        <v>first_name</v>
-      </c>
-      <c r="G1" t="str">
-        <v>last_name</v>
-      </c>
-      <c r="H1" t="str">
-        <v>birth_city</v>
-      </c>
-      <c r="I1" t="str">
-        <v>birth_state</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="1.05">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="1.05"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="1.05">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="1.05">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="str">
-        <v>LeBron</v>
-      </c>
-      <c r="G2" t="str">
-        <v>James</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Akron</v>
-      </c>
-      <c r="I2" t="str">
-        <v xml:space="preserve"> OH</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="1.05">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Kareem</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Abdul-Jabbar</v>
-      </c>
-      <c r="H3" t="str">
-        <v>New York City</v>
-      </c>
-      <c r="I3" t="str">
-        <v xml:space="preserve"> NY</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="1.05">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="e">
+        <f ca="1">_xlfn.FORMULATEXT(C3)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="1.05">
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Karl</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Malone</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Summerfield</v>
-      </c>
-      <c r="I4" t="str">
-        <v xml:space="preserve"> LA</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="1.05">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4">
+        <f>SQRT(C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C4)</f>
+        <v>=SQRT(C3)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="1.05">
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Kobe</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Bryant</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Philadelphia</v>
-      </c>
-      <c r="I5" t="str">
-        <v xml:space="preserve"> PA</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="1.05">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Michael</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Jordan</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Brooklyn</v>
-      </c>
-      <c r="I6" t="str">
-        <v xml:space="preserve"> NY</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="1.05">
-      <c r="A8" t="str" cm="1">
-        <f t="array" ref="A8:A11">_xlfn._xlws.PY(1,0)</f>
-        <v>first_name</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="1.05">
-      <c r="A9" t="str">
-        <v>last_name</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="1.05">
-      <c r="A10" t="str">
-        <v>birth_city</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="1.05">
-      <c r="A11" t="str">
-        <v>birth_state</v>
+      <c r="C5">
+        <f>C4 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C5)</f>
+        <v>=C4 + 1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="1.05">
@@ -787,10 +728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A70547-EFC7-42EC-9C11-814561E2AD5C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
@@ -800,19 +741,22 @@
     <col min="4" max="4" width="8.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:5" x14ac:dyDescent="1.05">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="str" cm="1">
-        <f t="array" ref="D1:D2">_xlfn._xlws.PY(2,0,A1:B6)</f>
-        <v>first_name</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="1.05">
+        <f t="array" ref="D1:E6">_xlfn._xlws.PY(0,0,A1:B6)</f>
+        <v>player</v>
+      </c>
+      <c r="E1" t="str">
+        <v>points</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="1.05">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -820,65 +764,82 @@
         <v>38923</v>
       </c>
       <c r="D2" t="str">
-        <v>points</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="1.05">
+        <v>LeBron</v>
+      </c>
+      <c r="E2">
+        <v>38923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="1.05">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>38387</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="D3" t="str">
+        <v>Kareem</v>
+      </c>
+      <c r="E3">
+        <v>38387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="1.05">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>36928</v>
       </c>
-      <c r="D4" cm="1">
-        <f t="array" ref="D4:D8">_xlfn._xlws.PY(3,0)</f>
-        <v>38923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="D4" t="str">
+        <v>Karl</v>
+      </c>
+      <c r="E4">
+        <v>36928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="1.05">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>33643</v>
       </c>
-      <c r="D5">
-        <v>38387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="1.05">
+      <c r="D5" t="str">
+        <v>Kobe</v>
+      </c>
+      <c r="E5">
+        <v>33643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="1.05">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>32292</v>
       </c>
-      <c r="D6">
-        <v>36928</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="D7">
-        <v>33643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="1.05">
-      <c r="D8">
+      <c r="D6" t="str">
+        <v>Michael</v>
+      </c>
+      <c r="E6">
         <v>32292</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="66.400000000000006" x14ac:dyDescent="1.05">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="8" spans="1:5" x14ac:dyDescent="1.05">
+      <c r="A8" cm="1" vm="1">
+        <f t="array" ref="A8">_xlfn._xlws.PY(1,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="1.05">
+      <c r="A10" cm="1" vm="1">
+        <f t="array" ref="A10">_xlfn._xlws.PY(2,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="1.05">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
